--- a/LGC_Motiv_analysis/nutrition/bls_3.02/BLS_3.02/BLS-Dateiaufbau.xlsx
+++ b/LGC_Motiv_analysis/nutrition/bls_3.02/BLS_3.02/BLS-Dateiaufbau.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_analysis\nutrition\bls_3.02\BLS_3.02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8D1D1-67D8-4798-9335-2B8B5EA39CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15450" windowHeight="12390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS-Dateiaufbau" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Traduction" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="459">
   <si>
     <t>SBLS</t>
   </si>
@@ -979,12 +997,426 @@
   </si>
   <si>
     <t>Energie inkl. Energie aus Ballaststoffen (Kilojoule)</t>
+  </si>
+  <si>
+    <t>TRADUCTION</t>
+  </si>
+  <si>
+    <t>Eau</t>
+  </si>
+  <si>
+    <t>Iodure</t>
+  </si>
+  <si>
+    <t>Mannitol</t>
+  </si>
+  <si>
+    <t>Xylitol</t>
+  </si>
+  <si>
+    <t>Poly-pentoses</t>
+  </si>
+  <si>
+    <t>Poly-hexoses</t>
+  </si>
+  <si>
+    <t>Isoleucine</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>Lysine</t>
+  </si>
+  <si>
+    <t>Méthionine</t>
+  </si>
+  <si>
+    <t>Cystéine</t>
+  </si>
+  <si>
+    <t>Phénylalanine</t>
+  </si>
+  <si>
+    <t>Tyrosine</t>
+  </si>
+  <si>
+    <t>Thréonine</t>
+  </si>
+  <si>
+    <t>Tryptophane</t>
+  </si>
+  <si>
+    <t>Valine</t>
+  </si>
+  <si>
+    <t>Arginine</t>
+  </si>
+  <si>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>Sérine</t>
+  </si>
+  <si>
+    <t>Purine</t>
+  </si>
+  <si>
+    <t>Énergie (kilocalories)</t>
+  </si>
+  <si>
+    <t>Énergie (kilojoules)</t>
+  </si>
+  <si>
+    <t>Énergie, y compris l'énergie provenant des fibres (kilocalories)</t>
+  </si>
+  <si>
+    <t>Énergie, y compris l'énergie provenant des fibres (kilojoules)</t>
+  </si>
+  <si>
+    <t>blanc d'œuf (protéine)</t>
+  </si>
+  <si>
+    <t>Graisses</t>
+  </si>
+  <si>
+    <t>Glucides absorbables</t>
+  </si>
+  <si>
+    <t>Fibres</t>
+  </si>
+  <si>
+    <t>Minéraux (cendres brutes)</t>
+  </si>
+  <si>
+    <t>Acides organiques</t>
+  </si>
+  <si>
+    <t>Alcool (éthanol)</t>
+  </si>
+  <si>
+    <t>Vitamine A: équivalents rétinol</t>
+  </si>
+  <si>
+    <t>Vitamine A: rétinol</t>
+  </si>
+  <si>
+    <t>Vitamine D: calciférol</t>
+  </si>
+  <si>
+    <t>Vitamine A: bêta-carotène</t>
+  </si>
+  <si>
+    <t>Vitamine E: équivalent tocophérol</t>
+  </si>
+  <si>
+    <t>Vitamine E: alpha tocophérol</t>
+  </si>
+  <si>
+    <t>Vitamine K: phylloquinone</t>
+  </si>
+  <si>
+    <t>Vitamine B2: riboflavine</t>
+  </si>
+  <si>
+    <t>Vitamine B1: thiamine</t>
+  </si>
+  <si>
+    <t>Vitamine B3: niacine, acide nicotinique</t>
+  </si>
+  <si>
+    <t>Vitamine B3: équivalents niacine</t>
+  </si>
+  <si>
+    <t>Vitamine B5: Acide pantothénique</t>
+  </si>
+  <si>
+    <t>Vitamine B6: Pyridoxine</t>
+  </si>
+  <si>
+    <t>Vitamine B7: Biotine (Vitamine H)</t>
+  </si>
+  <si>
+    <t>Vitamine B9: acide folique total</t>
+  </si>
+  <si>
+    <t>Vitamine B12: cobalamine</t>
+  </si>
+  <si>
+    <t>Vitamine C: acide ascorbique</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Magnésium</t>
+  </si>
+  <si>
+    <t>Phosphore</t>
+  </si>
+  <si>
+    <t>Soufre</t>
+  </si>
+  <si>
+    <t>Chlorure</t>
+  </si>
+  <si>
+    <t>Fer</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Cuivre</t>
+  </si>
+  <si>
+    <t>Manganèse</t>
+  </si>
+  <si>
+    <t>Fluorure</t>
+  </si>
+  <si>
+    <t>Sorbitol</t>
+  </si>
+  <si>
+    <t>Alcools de sucre totaux</t>
+  </si>
+  <si>
+    <t>Glucose (dextrose)</t>
+  </si>
+  <si>
+    <t>Fructose (sucre de fruit)</t>
+  </si>
+  <si>
+    <t>Galactose (sucre de mucus)</t>
+  </si>
+  <si>
+    <t>Monosaccharides (1M)</t>
+  </si>
+  <si>
+    <t>Saccharose (sucre de betterave)</t>
+  </si>
+  <si>
+    <t>Maltose (sucre de malt)</t>
+  </si>
+  <si>
+    <t>Lactose (sucre du lait)</t>
+  </si>
+  <si>
+    <t>Disaccharides (2 M)</t>
+  </si>
+  <si>
+    <t>Sucre (total)</t>
+  </si>
+  <si>
+    <t>Oligosaccharides résorbables (3 - 9 M)</t>
+  </si>
+  <si>
+    <t>Oligosaccharides, non résorbables</t>
+  </si>
+  <si>
+    <t>Glycogène (amidon animal)</t>
+  </si>
+  <si>
+    <t>Amidon</t>
+  </si>
+  <si>
+    <t>Polysaccharides (&gt; 9 M)</t>
+  </si>
+  <si>
+    <t>Acide polyuronique</t>
+  </si>
+  <si>
+    <t>Lignine</t>
+  </si>
+  <si>
+    <t>Histidine</t>
+  </si>
+  <si>
+    <t>Fibres solubles dans l'eau</t>
+  </si>
+  <si>
+    <t>Fibre insoluble dans l'eau</t>
+  </si>
+  <si>
+    <t>Acides aminés essentiels</t>
+  </si>
+  <si>
+    <t>acide aspartique/aspartate</t>
+  </si>
+  <si>
+    <t>acide glutamique/glutamate</t>
+  </si>
+  <si>
+    <t>acide urique</t>
+  </si>
+  <si>
+    <t>acides gras saturés</t>
+  </si>
+  <si>
+    <t>acide tétradécénoïque</t>
+  </si>
+  <si>
+    <t>acide butanoïque/acide butyrique</t>
+  </si>
+  <si>
+    <t>acides aminés non essentiels</t>
+  </si>
+  <si>
+    <t>acide eicosanoïque/acide arachidique</t>
+  </si>
+  <si>
+    <t>acide décanoïque/acide béhénique</t>
+  </si>
+  <si>
+    <t>acide tétracosanoïque/acide lignocérique</t>
+  </si>
+  <si>
+    <t>acide heptadécanoïque</t>
+  </si>
+  <si>
+    <t>acide pentadécanoïque</t>
+  </si>
+  <si>
+    <t>acide octadécanoïque/acide stéarique</t>
+  </si>
+  <si>
+    <t>acide hexadécanoïque/acide palmitique</t>
+  </si>
+  <si>
+    <t>acide tétradécanoïque/acide myristique</t>
+  </si>
+  <si>
+    <t>acide dodécanoïque/acide laurique</t>
+  </si>
+  <si>
+    <t>acide décanoïque/acide caprique</t>
+  </si>
+  <si>
+    <t>acide octanoïque/acide caprylique</t>
+  </si>
+  <si>
+    <t>acide hexanoïque/acide caproïque</t>
+  </si>
+  <si>
+    <t>acide pentadécénoïque</t>
+  </si>
+  <si>
+    <t>acide heptadécénoïque</t>
+  </si>
+  <si>
+    <t>acide hexadécénoïque/acide palmitoléique</t>
+  </si>
+  <si>
+    <t>acide octadécénoïque/acide oléique</t>
+  </si>
+  <si>
+    <t>acide eicosénoïque</t>
+  </si>
+  <si>
+    <t>acide décosénoïque/acide érucique</t>
+  </si>
+  <si>
+    <t>acide tétracosénoïque/acide nervonique</t>
+  </si>
+  <si>
+    <t>acides gras monoinsaturés</t>
+  </si>
+  <si>
+    <t>acide hexadécadiénoïque</t>
+  </si>
+  <si>
+    <t>acide hexadécatetraénoïque</t>
+  </si>
+  <si>
+    <t>acide octadécadiénoïque/acide linoléique</t>
+  </si>
+  <si>
+    <t>acide octadécatriénoïque/acide linolénique</t>
+  </si>
+  <si>
+    <t>acide octradecatétraénoïque/acide stéaridonique</t>
+  </si>
+  <si>
+    <t>acide non adécatriénoïque</t>
+  </si>
+  <si>
+    <t>acide eicosadiénoïque</t>
+  </si>
+  <si>
+    <t>acide docosadiénoïque</t>
+  </si>
+  <si>
+    <t>acide eicosatriénoïque</t>
+  </si>
+  <si>
+    <t>acide eicosatétraénoïque/acide arachidonique</t>
+  </si>
+  <si>
+    <t>acide eicosapentaénoïque</t>
+  </si>
+  <si>
+    <t>acide docosapentaénoïque</t>
+  </si>
+  <si>
+    <t>acide docosatrienoïque</t>
+  </si>
+  <si>
+    <t>acide docosatétraénoïque</t>
+  </si>
+  <si>
+    <t>acide docosahexaénoïque</t>
+  </si>
+  <si>
+    <t>acides gras polyinsaturés</t>
+  </si>
+  <si>
+    <t>Acides gras à chaîne courte</t>
+  </si>
+  <si>
+    <t>Acides gras à chaîne moyenne</t>
+  </si>
+  <si>
+    <t>Acides gras à chaîne longue</t>
+  </si>
+  <si>
+    <t>Omégas 3</t>
+  </si>
+  <si>
+    <t>Omégas 6</t>
+  </si>
+  <si>
+    <t>Glycérine et lipides</t>
+  </si>
+  <si>
+    <t>choléstérol</t>
+  </si>
+  <si>
+    <t>Rapport P/S</t>
+  </si>
+  <si>
+    <t>Unités de pain</t>
+  </si>
+  <si>
+    <t>Sel de table</t>
+  </si>
+  <si>
+    <t>total Portion moyenne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,14 +1463,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1046,14 +1477,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1091,7 +1525,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1163,7 +1597,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1336,21 +1770,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1367,65 +1802,65 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>298</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>315</v>
       </c>
     </row>
@@ -1453,3256 +1888,3256 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>300</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>60</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>295</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>60</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>317</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="D22" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="D23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24">
         <v>6</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="D25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="D26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="D27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>14</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="D28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>15</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E29" s="3">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="D29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>16</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="D30" t="s">
+        <v>301</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>17</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="D31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>18</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="D32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>19</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" t="s">
+        <v>301</v>
+      </c>
+      <c r="E33">
         <v>6.2</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>20</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34">
         <v>6</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>21</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" t="s">
+        <v>301</v>
+      </c>
+      <c r="E35">
         <v>6</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>22</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D36" t="s">
+        <v>301</v>
+      </c>
+      <c r="E36">
         <v>4</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>23</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="D37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>24</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E38">
         <v>4</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>25</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E39" s="3">
-        <v>5</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="D39" t="s">
+        <v>301</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>26</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E40" s="3">
-        <v>5</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="D40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>27</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E41" s="3">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="D41" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>28</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42">
         <v>4</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>29</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>30</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="D44" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>31</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>32</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46">
         <v>8</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>33</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="D47" t="s">
+        <v>301</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48">
         <v>34</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="D48" t="s">
+        <v>301</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49">
         <v>35</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" t="s">
+        <v>301</v>
+      </c>
+      <c r="E49">
         <v>4</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50">
         <v>36</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51">
         <v>37</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D51" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51">
         <v>6</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52">
         <v>38</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52">
         <v>4</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53">
         <v>39</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E53" s="3">
-        <v>5</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="D53" t="s">
+        <v>301</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54">
         <v>40</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="D54" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54">
         <v>6</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55">
         <v>41</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="D55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E55">
         <v>6</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56">
         <v>42</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E56" s="3">
-        <v>5</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="D56" t="s">
+        <v>301</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57">
         <v>43</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57">
         <v>6</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58">
         <v>44</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="D58" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59">
         <v>45</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" t="s">
+        <v>301</v>
+      </c>
+      <c r="E59">
         <v>6.1</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" t="s">
         <v>28</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60">
         <v>46</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E60" s="3">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="D60" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61">
         <v>47</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="D61" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62">
         <v>48</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E62" s="3">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="D62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63">
         <v>49</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E63" s="3">
-        <v>5</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="D63" t="s">
+        <v>301</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64">
         <v>50</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E64" s="3">
-        <v>5</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="D64" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65">
         <v>51</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E65" s="3">
-        <v>5</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="D65" t="s">
+        <v>301</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66">
         <v>52</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" t="s">
+        <v>301</v>
+      </c>
+      <c r="E66">
         <v>4</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67">
         <v>53</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E67" s="3">
-        <v>5</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="D67" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68">
         <v>54</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E68" s="3">
-        <v>5</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="D68" t="s">
+        <v>301</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69">
         <v>55</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E69" s="3">
-        <v>5</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="D69" t="s">
+        <v>301</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70">
         <v>56</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E70" s="3">
-        <v>5</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="D70" t="s">
+        <v>301</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71">
         <v>57</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E71" s="3">
-        <v>5</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="D71" t="s">
+        <v>301</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72">
         <v>58</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E72" s="3">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="D72" t="s">
+        <v>301</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73">
         <v>59</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E73" s="3">
-        <v>5</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="D73" t="s">
+        <v>301</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74">
         <v>60</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>124</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" t="s">
         <v>106</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E74" s="3">
-        <v>5</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="D74" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75">
         <v>61</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" t="s">
         <v>107</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="D75" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75">
         <v>4</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76">
         <v>62</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="3">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="D76" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77">
         <v>63</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E77" s="3">
-        <v>5</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="D77" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78">
         <v>64</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>135</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E78" s="3">
-        <v>5</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="D78" t="s">
+        <v>301</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79">
         <v>65</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E79" s="3">
-        <v>5</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="D79" t="s">
+        <v>301</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80">
         <v>66</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E80" s="3">
-        <v>5</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="D80" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81">
         <v>67</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>131</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E81" s="3">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="D81" t="s">
+        <v>301</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82">
         <v>68</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" t="s">
         <v>132</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E82" s="3">
-        <v>5</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="D82" t="s">
+        <v>301</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83">
         <v>69</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="D83" t="s">
+        <v>301</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84">
         <v>70</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>134</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E84" s="3">
-        <v>5</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="D84" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85">
         <v>71</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>142</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E85" s="3">
+      <c r="D85" t="s">
+        <v>301</v>
+      </c>
+      <c r="E85">
         <v>4</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86">
         <v>72</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="s">
         <v>143</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E86" s="3">
+      <c r="D86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86">
         <v>4</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87">
         <v>73</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>166</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" t="s">
         <v>144</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E87" s="3">
+      <c r="D87" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87">
         <v>4</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88">
         <v>74</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>167</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" t="s">
         <v>145</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E88" s="3">
+      <c r="D88" t="s">
+        <v>301</v>
+      </c>
+      <c r="E88">
         <v>4</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89">
         <v>75</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" t="s">
         <v>146</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" t="s">
+        <v>301</v>
+      </c>
+      <c r="E89">
         <v>4</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90">
         <v>76</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>169</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E90" s="3">
+      <c r="D90" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90">
         <v>4</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91">
         <v>77</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>170</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" t="s">
+        <v>301</v>
+      </c>
+      <c r="E91">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92">
         <v>78</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>171</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" t="s">
         <v>149</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E92" s="3">
+      <c r="D92" t="s">
+        <v>301</v>
+      </c>
+      <c r="E92">
         <v>4</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93">
         <v>79</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>172</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E93" s="3">
+      <c r="D93" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93">
         <v>4</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94">
         <v>80</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>173</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" t="s">
+        <v>301</v>
+      </c>
+      <c r="E94">
         <v>4</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95">
         <v>81</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" t="s">
         <v>152</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E95" s="3">
+      <c r="D95" t="s">
+        <v>301</v>
+      </c>
+      <c r="E95">
         <v>4</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96">
         <v>82</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
         <v>175</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" t="s">
         <v>153</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E96" s="3">
+      <c r="D96" t="s">
+        <v>301</v>
+      </c>
+      <c r="E96">
         <v>4</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97">
         <v>83</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>176</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" t="s">
         <v>154</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E97" s="3">
-        <v>5</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="D97" t="s">
+        <v>301</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98">
         <v>84</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>177</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" t="s">
         <v>155</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E98" s="3">
-        <v>5</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="D98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99">
         <v>85</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>178</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" t="s">
         <v>156</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E99" s="3">
+      <c r="D99" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99">
         <v>4</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100">
         <v>86</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
         <v>179</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E100" s="3">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="3" t="s">
+      <c r="D100" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101">
         <v>87</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
         <v>180</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" t="s">
         <v>158</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E101" s="3">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="D101" t="s">
+        <v>301</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102">
         <v>88</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>181</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" t="s">
         <v>159</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E102" s="3">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="D102" t="s">
+        <v>301</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103">
         <v>89</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" t="s">
         <v>182</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" t="s">
         <v>160</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E103" s="3">
+      <c r="D103" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103">
         <v>4</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104">
         <v>90</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s">
         <v>183</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" t="s">
         <v>161</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E104" s="3">
-        <v>5</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="D104" t="s">
+        <v>301</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="A105">
         <v>91</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
         <v>289</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" t="s">
         <v>162</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E105" s="3">
+      <c r="D105" t="s">
+        <v>301</v>
+      </c>
+      <c r="E105">
         <v>4</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106">
         <v>92</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" t="s">
         <v>163</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E106" s="3">
+      <c r="D106" t="s">
+        <v>301</v>
+      </c>
+      <c r="E106">
         <v>3</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="3" t="s">
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107">
         <v>93</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" t="s">
         <v>231</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" t="s">
         <v>185</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E107" s="3">
+      <c r="D107" t="s">
+        <v>301</v>
+      </c>
+      <c r="E107">
         <v>4</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108">
         <v>94</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" t="s">
         <v>232</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" t="s">
         <v>186</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E108" s="3">
+      <c r="D108" t="s">
+        <v>301</v>
+      </c>
+      <c r="E108">
         <v>4</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="3" t="s">
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="A109">
         <v>95</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
         <v>233</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" t="s">
         <v>187</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="D109" t="s">
+        <v>301</v>
+      </c>
+      <c r="E109">
         <v>4</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="3" t="s">
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110">
         <v>96</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>234</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" t="s">
         <v>188</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E110" s="3">
+      <c r="D110" t="s">
+        <v>301</v>
+      </c>
+      <c r="E110">
         <v>4</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="A111">
         <v>97</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" t="s">
         <v>189</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E111" s="3">
-        <v>5</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="3" t="s">
+      <c r="D111" t="s">
+        <v>301</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="A112">
         <v>98</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" t="s">
         <v>236</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E112" s="3">
-        <v>5</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="D112" t="s">
+        <v>301</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="A113">
         <v>99</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
         <v>237</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" t="s">
         <v>191</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E113" s="3">
+      <c r="D113" t="s">
+        <v>301</v>
+      </c>
+      <c r="E113">
         <v>4</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="3" t="s">
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="A114">
         <v>100</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" t="s">
         <v>238</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" t="s">
         <v>192</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E114" s="3">
-        <v>5</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="D114" t="s">
+        <v>301</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+      <c r="A115">
         <v>101</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" t="s">
         <v>193</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="D115" t="s">
+        <v>301</v>
+      </c>
+      <c r="E115">
         <v>4</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" s="3" t="s">
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="A116">
         <v>102</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" t="s">
         <v>194</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E116" s="3">
-        <v>5</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="D116" t="s">
+        <v>301</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="A117">
         <v>103</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>241</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" t="s">
         <v>195</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="D117" t="s">
+        <v>301</v>
+      </c>
+      <c r="E117">
         <v>4</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="A118">
         <v>104</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" t="s">
         <v>196</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E118" s="3">
+      <c r="D118" t="s">
+        <v>301</v>
+      </c>
+      <c r="E118">
         <v>4</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="A119">
         <v>105</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" t="s">
         <v>197</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E119" s="3">
+      <c r="D119" t="s">
+        <v>301</v>
+      </c>
+      <c r="E119">
         <v>4</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="3" t="s">
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="A120">
         <v>106</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" t="s">
         <v>244</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" t="s">
         <v>198</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E120" s="3">
-        <v>5</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="D120" t="s">
+        <v>301</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="A121">
         <v>107</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
         <v>245</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" t="s">
         <v>199</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="D121" t="s">
+        <v>301</v>
+      </c>
+      <c r="E121">
         <v>4</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="A122">
         <v>108</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" t="s">
         <v>246</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" t="s">
         <v>200</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="D122" t="s">
+        <v>301</v>
+      </c>
+      <c r="E122">
         <v>3</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="A123">
         <v>109</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
         <v>247</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" t="s">
         <v>201</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E123" s="3">
-        <v>5</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="D123" t="s">
+        <v>301</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="A124">
         <v>110</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" t="s">
         <v>202</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E124" s="3">
+      <c r="D124" t="s">
+        <v>301</v>
+      </c>
+      <c r="E124">
         <v>3</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="A125">
         <v>111</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" t="s">
         <v>203</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E125" s="3">
-        <v>5</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="3" t="s">
+      <c r="D125" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="A126">
         <v>112</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" t="s">
         <v>250</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" t="s">
         <v>204</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E126" s="3">
-        <v>5</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="3" t="s">
+      <c r="D126" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="A127">
         <v>113</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" t="s">
         <v>205</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E127" s="3">
-        <v>5</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="3" t="s">
+      <c r="D127" t="s">
+        <v>301</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="A128">
         <v>114</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" t="s">
         <v>206</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E128" s="3">
+      <c r="D128" t="s">
+        <v>301</v>
+      </c>
+      <c r="E128">
         <v>3</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="3" t="s">
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="A129">
         <v>115</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s">
         <v>253</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" t="s">
         <v>207</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E129" s="3">
-        <v>5</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="D129" t="s">
+        <v>301</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="A130">
         <v>116</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" t="s">
         <v>208</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E130" s="3">
+      <c r="D130" t="s">
+        <v>301</v>
+      </c>
+      <c r="E130">
         <v>2</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" s="3" t="s">
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+      <c r="A131">
         <v>117</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" t="s">
         <v>209</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E131" s="3">
+      <c r="D131" t="s">
+        <v>301</v>
+      </c>
+      <c r="E131">
         <v>2</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="A132">
         <v>118</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>256</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" t="s">
         <v>210</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E132" s="3">
-        <v>5</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="D132" t="s">
+        <v>301</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="A133">
         <v>119</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" t="s">
         <v>257</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" t="s">
         <v>211</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E133" s="3">
-        <v>5</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" s="3" t="s">
+      <c r="D133" t="s">
+        <v>301</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="A134">
         <v>120</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" t="s">
         <v>258</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" t="s">
         <v>212</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E134" s="3">
+      <c r="D134" t="s">
+        <v>301</v>
+      </c>
+      <c r="E134">
         <v>4</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="A135">
         <v>121</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s">
         <v>259</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" t="s">
         <v>213</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E135" s="3">
+      <c r="D135" t="s">
+        <v>301</v>
+      </c>
+      <c r="E135">
         <v>3</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="A136">
         <v>122</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" t="s">
         <v>260</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" t="s">
         <v>214</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" t="s">
+        <v>301</v>
+      </c>
+      <c r="E136">
         <v>3</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="A137">
         <v>123</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" t="s">
         <v>261</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" t="s">
         <v>215</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" t="s">
+        <v>301</v>
+      </c>
+      <c r="E137">
         <v>4</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" s="3" t="s">
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="A138">
         <v>124</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" t="s">
         <v>262</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" t="s">
         <v>216</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" t="s">
+        <v>301</v>
+      </c>
+      <c r="E138">
         <v>4</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" s="3" t="s">
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="A139">
         <v>125</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" t="s">
         <v>263</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" t="s">
         <v>217</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" t="s">
+        <v>301</v>
+      </c>
+      <c r="E139">
         <v>4</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="A140">
         <v>126</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" t="s">
         <v>264</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" t="s">
         <v>218</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" t="s">
+        <v>301</v>
+      </c>
+      <c r="E140">
         <v>2</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="A141">
         <v>127</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" t="s">
         <v>265</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" t="s">
         <v>219</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="D141" t="s">
+        <v>301</v>
+      </c>
+      <c r="E141">
         <v>2</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="3" t="s">
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="A142">
         <v>128</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" t="s">
         <v>266</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" t="s">
         <v>220</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E142" s="3">
+      <c r="D142" t="s">
+        <v>301</v>
+      </c>
+      <c r="E142">
         <v>3</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+      <c r="A143">
         <v>129</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" t="s">
         <v>267</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" t="s">
         <v>221</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E143" s="3">
+      <c r="D143" t="s">
+        <v>301</v>
+      </c>
+      <c r="E143">
         <v>4</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="A144">
         <v>130</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" t="s">
         <v>268</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" t="s">
         <v>222</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E144" s="3">
-        <v>5</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="D144" t="s">
+        <v>301</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="A145">
         <v>131</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" t="s">
         <v>223</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E145" s="3">
-        <v>5</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="D145" t="s">
+        <v>301</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="A146">
         <v>132</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" t="s">
         <v>270</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" t="s">
         <v>224</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E146" s="3">
+      <c r="D146" t="s">
+        <v>301</v>
+      </c>
+      <c r="E146">
         <v>4</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="A147">
         <v>133</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" t="s">
         <v>271</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" t="s">
         <v>225</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E147" s="3">
-        <v>5</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="D147" t="s">
+        <v>301</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="A148">
         <v>134</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" t="s">
         <v>272</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" t="s">
         <v>226</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E148" s="3">
+      <c r="D148" t="s">
+        <v>301</v>
+      </c>
+      <c r="E148">
         <v>6</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="A149">
         <v>135</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" t="s">
         <v>273</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" t="s">
         <v>227</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E149" s="3">
-        <v>5</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" s="3" t="s">
+      <c r="D149" t="s">
+        <v>301</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="A150">
         <v>136</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" t="s">
         <v>274</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" t="s">
         <v>228</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E150" s="3">
-        <v>5</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" s="3" t="s">
+      <c r="D150" t="s">
+        <v>301</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+      <c r="A151">
         <v>137</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" t="s">
         <v>275</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" t="s">
         <v>229</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E151" s="3">
-        <v>5</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" s="3" t="s">
+      <c r="D151" t="s">
+        <v>301</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="A152">
         <v>138</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" t="s">
         <v>276</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" t="s">
         <v>230</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E152" s="3">
+      <c r="D152" t="s">
+        <v>301</v>
+      </c>
+      <c r="E152">
         <v>4</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" s="3" t="s">
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="A153">
         <v>139</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" t="s">
         <v>280</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" t="s">
         <v>281</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E153" s="3">
+      <c r="D153" t="s">
+        <v>301</v>
+      </c>
+      <c r="E153">
         <v>5.2</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G153" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154">
         <v>140</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" t="s">
         <v>282</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" t="s">
         <v>283</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E154" s="3">
+      <c r="D154" t="s">
+        <v>301</v>
+      </c>
+      <c r="E154">
         <v>4.2</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F154" t="s">
         <v>278</v>
       </c>
-      <c r="G154" s="3" t="s">
+      <c r="G154" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="A155">
         <v>141</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" t="s">
         <v>284</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" t="s">
         <v>285</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E155" s="3">
-        <v>5</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" s="3" t="s">
+      <c r="D155" t="s">
+        <v>301</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="A156">
         <v>142</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" t="s">
         <v>286</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" t="s">
         <v>287</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E156" s="3">
+      <c r="D156" t="s">
+        <v>301</v>
+      </c>
+      <c r="E156">
         <v>6.1</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" t="s">
         <v>279</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G156" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4713,25 +5148,3799 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" t="s">
+        <v>301</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" t="s">
+        <v>301</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" t="s">
+        <v>301</v>
+      </c>
+      <c r="F33">
+        <v>6.2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>360</v>
+      </c>
+      <c r="E35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" t="s">
+        <v>301</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>364</v>
+      </c>
+      <c r="E39" t="s">
+        <v>301</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>365</v>
+      </c>
+      <c r="E40" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" t="s">
+        <v>301</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" t="s">
+        <v>301</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>368</v>
+      </c>
+      <c r="E43" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>370</v>
+      </c>
+      <c r="E45" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>371</v>
+      </c>
+      <c r="E46" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>372</v>
+      </c>
+      <c r="E47" t="s">
+        <v>301</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>373</v>
+      </c>
+      <c r="E48" t="s">
+        <v>301</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>301</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s">
+        <v>374</v>
+      </c>
+      <c r="E50" t="s">
+        <v>301</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>375</v>
+      </c>
+      <c r="E51" t="s">
+        <v>301</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>376</v>
+      </c>
+      <c r="E52" t="s">
+        <v>301</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>377</v>
+      </c>
+      <c r="E53" t="s">
+        <v>301</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" t="s">
+        <v>301</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>379</v>
+      </c>
+      <c r="E55" t="s">
+        <v>301</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" t="s">
+        <v>380</v>
+      </c>
+      <c r="E56" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>381</v>
+      </c>
+      <c r="E57" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>382</v>
+      </c>
+      <c r="E58" t="s">
+        <v>301</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s">
+        <v>323</v>
+      </c>
+      <c r="E59" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59">
+        <v>6.1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>324</v>
+      </c>
+      <c r="E60" t="s">
+        <v>301</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62" t="s">
+        <v>301</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="s">
+        <v>384</v>
+      </c>
+      <c r="E63" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" t="s">
+        <v>385</v>
+      </c>
+      <c r="E64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" t="s">
+        <v>301</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
+        <v>387</v>
+      </c>
+      <c r="E66" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" t="s">
+        <v>388</v>
+      </c>
+      <c r="E67" t="s">
+        <v>301</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" t="s">
+        <v>389</v>
+      </c>
+      <c r="E68" t="s">
+        <v>301</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
+        <v>391</v>
+      </c>
+      <c r="E70" t="s">
+        <v>301</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" t="s">
+        <v>392</v>
+      </c>
+      <c r="E71" t="s">
+        <v>301</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" t="s">
+        <v>393</v>
+      </c>
+      <c r="E72" t="s">
+        <v>301</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" t="s">
+        <v>394</v>
+      </c>
+      <c r="E73" t="s">
+        <v>301</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" t="s">
+        <v>301</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" t="s">
+        <v>396</v>
+      </c>
+      <c r="E75" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" t="s">
+        <v>397</v>
+      </c>
+      <c r="E76" t="s">
+        <v>301</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" t="s">
+        <v>398</v>
+      </c>
+      <c r="E77" t="s">
+        <v>301</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>64</v>
+      </c>
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" t="s">
+        <v>326</v>
+      </c>
+      <c r="E78" t="s">
+        <v>301</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>327</v>
+      </c>
+      <c r="E79" t="s">
+        <v>301</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>399</v>
+      </c>
+      <c r="E80" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>67</v>
+      </c>
+      <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" t="s">
+        <v>301</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" t="s">
+        <v>400</v>
+      </c>
+      <c r="E82" t="s">
+        <v>301</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>69</v>
+      </c>
+      <c r="B83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" t="s">
+        <v>402</v>
+      </c>
+      <c r="E83" t="s">
+        <v>301</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" t="s">
+        <v>403</v>
+      </c>
+      <c r="E84" t="s">
+        <v>301</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" t="s">
+        <v>301</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>72</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" t="s">
+        <v>329</v>
+      </c>
+      <c r="E86" t="s">
+        <v>301</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>73</v>
+      </c>
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" t="s">
+        <v>330</v>
+      </c>
+      <c r="E87" t="s">
+        <v>301</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>74</v>
+      </c>
+      <c r="B88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" t="s">
+        <v>331</v>
+      </c>
+      <c r="E88" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>75</v>
+      </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>76</v>
+      </c>
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" t="s">
+        <v>301</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>77</v>
+      </c>
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E91" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" t="s">
+        <v>335</v>
+      </c>
+      <c r="E92" t="s">
+        <v>301</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>79</v>
+      </c>
+      <c r="B93" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" t="s">
+        <v>336</v>
+      </c>
+      <c r="E93" t="s">
+        <v>301</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>80</v>
+      </c>
+      <c r="B94" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" t="s">
+        <v>337</v>
+      </c>
+      <c r="E94" t="s">
+        <v>301</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" t="s">
+        <v>152</v>
+      </c>
+      <c r="D95" t="s">
+        <v>338</v>
+      </c>
+      <c r="E95" t="s">
+        <v>301</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" t="s">
+        <v>401</v>
+      </c>
+      <c r="E96" t="s">
+        <v>301</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>83</v>
+      </c>
+      <c r="B97" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" t="s">
+        <v>404</v>
+      </c>
+      <c r="E97" t="s">
+        <v>301</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>84</v>
+      </c>
+      <c r="B98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" t="s">
+        <v>339</v>
+      </c>
+      <c r="E98" t="s">
+        <v>301</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>85</v>
+      </c>
+      <c r="B99" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99" t="s">
+        <v>405</v>
+      </c>
+      <c r="E99" t="s">
+        <v>301</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" t="s">
+        <v>406</v>
+      </c>
+      <c r="E100" t="s">
+        <v>301</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>87</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" t="s">
+        <v>340</v>
+      </c>
+      <c r="E101" t="s">
+        <v>301</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" t="s">
+        <v>341</v>
+      </c>
+      <c r="E102" t="s">
+        <v>301</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>89</v>
+      </c>
+      <c r="B103" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" t="s">
+        <v>342</v>
+      </c>
+      <c r="E103" t="s">
+        <v>301</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>90</v>
+      </c>
+      <c r="B104" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" t="s">
+        <v>411</v>
+      </c>
+      <c r="E104" t="s">
+        <v>301</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>91</v>
+      </c>
+      <c r="B105" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" t="s">
+        <v>407</v>
+      </c>
+      <c r="E105" t="s">
+        <v>301</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>92</v>
+      </c>
+      <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
+        <v>163</v>
+      </c>
+      <c r="D106" t="s">
+        <v>343</v>
+      </c>
+      <c r="E106" t="s">
+        <v>301</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>93</v>
+      </c>
+      <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
+        <v>185</v>
+      </c>
+      <c r="D107" t="s">
+        <v>410</v>
+      </c>
+      <c r="E107" t="s">
+        <v>301</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>94</v>
+      </c>
+      <c r="B108" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" t="s">
+        <v>186</v>
+      </c>
+      <c r="D108" t="s">
+        <v>423</v>
+      </c>
+      <c r="E108" t="s">
+        <v>301</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>95</v>
+      </c>
+      <c r="B109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D109" t="s">
+        <v>422</v>
+      </c>
+      <c r="E109" t="s">
+        <v>301</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" t="s">
+        <v>421</v>
+      </c>
+      <c r="E110" t="s">
+        <v>301</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>97</v>
+      </c>
+      <c r="B111" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111" t="s">
+        <v>420</v>
+      </c>
+      <c r="E111" t="s">
+        <v>301</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>98</v>
+      </c>
+      <c r="B112" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" t="s">
+        <v>190</v>
+      </c>
+      <c r="D112" t="s">
+        <v>419</v>
+      </c>
+      <c r="E112" t="s">
+        <v>301</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>99</v>
+      </c>
+      <c r="B113" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" t="s">
+        <v>416</v>
+      </c>
+      <c r="E113" t="s">
+        <v>301</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>100</v>
+      </c>
+      <c r="B114" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" t="s">
+        <v>418</v>
+      </c>
+      <c r="E114" t="s">
+        <v>301</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>101</v>
+      </c>
+      <c r="B115" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D115" t="s">
+        <v>415</v>
+      </c>
+      <c r="E115" t="s">
+        <v>301</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>102</v>
+      </c>
+      <c r="B116" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" t="s">
+        <v>417</v>
+      </c>
+      <c r="E116" t="s">
+        <v>301</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>103</v>
+      </c>
+      <c r="B117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117" t="s">
+        <v>412</v>
+      </c>
+      <c r="E117" t="s">
+        <v>301</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>104</v>
+      </c>
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" t="s">
+        <v>196</v>
+      </c>
+      <c r="D118" t="s">
+        <v>413</v>
+      </c>
+      <c r="E118" t="s">
+        <v>301</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>105</v>
+      </c>
+      <c r="B119" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" t="s">
+        <v>197</v>
+      </c>
+      <c r="D119" t="s">
+        <v>414</v>
+      </c>
+      <c r="E119" t="s">
+        <v>301</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>106</v>
+      </c>
+      <c r="B120" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" t="s">
+        <v>408</v>
+      </c>
+      <c r="E120" t="s">
+        <v>301</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" t="s">
+        <v>199</v>
+      </c>
+      <c r="D121" t="s">
+        <v>409</v>
+      </c>
+      <c r="E121" t="s">
+        <v>301</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>108</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s">
+        <v>200</v>
+      </c>
+      <c r="D122" t="s">
+        <v>424</v>
+      </c>
+      <c r="E122" t="s">
+        <v>301</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>109</v>
+      </c>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" t="s">
+        <v>201</v>
+      </c>
+      <c r="D123" t="s">
+        <v>426</v>
+      </c>
+      <c r="E123" t="s">
+        <v>301</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>110</v>
+      </c>
+      <c r="B124" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" t="s">
+        <v>202</v>
+      </c>
+      <c r="D124" t="s">
+        <v>425</v>
+      </c>
+      <c r="E124" t="s">
+        <v>301</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>111</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
+        <v>203</v>
+      </c>
+      <c r="D125" t="s">
+        <v>427</v>
+      </c>
+      <c r="E125" t="s">
+        <v>301</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>112</v>
+      </c>
+      <c r="B126" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" t="s">
+        <v>204</v>
+      </c>
+      <c r="D126" t="s">
+        <v>428</v>
+      </c>
+      <c r="E126" t="s">
+        <v>301</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>113</v>
+      </c>
+      <c r="B127" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127" t="s">
+        <v>429</v>
+      </c>
+      <c r="E127" t="s">
+        <v>301</v>
+      </c>
+      <c r="F127">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>114</v>
+      </c>
+      <c r="B128" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" t="s">
+        <v>206</v>
+      </c>
+      <c r="D128" t="s">
+        <v>430</v>
+      </c>
+      <c r="E128" t="s">
+        <v>301</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>115</v>
+      </c>
+      <c r="B129" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" t="s">
+        <v>207</v>
+      </c>
+      <c r="D129" t="s">
+        <v>431</v>
+      </c>
+      <c r="E129" t="s">
+        <v>301</v>
+      </c>
+      <c r="F129">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>116</v>
+      </c>
+      <c r="B130" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" t="s">
+        <v>208</v>
+      </c>
+      <c r="D130" t="s">
+        <v>432</v>
+      </c>
+      <c r="E130" t="s">
+        <v>301</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>117</v>
+      </c>
+      <c r="B131" t="s">
+        <v>255</v>
+      </c>
+      <c r="C131" t="s">
+        <v>209</v>
+      </c>
+      <c r="D131" t="s">
+        <v>433</v>
+      </c>
+      <c r="E131" t="s">
+        <v>301</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>118</v>
+      </c>
+      <c r="B132" t="s">
+        <v>256</v>
+      </c>
+      <c r="C132" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" t="s">
+        <v>434</v>
+      </c>
+      <c r="E132" t="s">
+        <v>301</v>
+      </c>
+      <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>119</v>
+      </c>
+      <c r="B133" t="s">
+        <v>257</v>
+      </c>
+      <c r="C133" t="s">
+        <v>211</v>
+      </c>
+      <c r="D133" t="s">
+        <v>435</v>
+      </c>
+      <c r="E133" t="s">
+        <v>301</v>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>120</v>
+      </c>
+      <c r="B134" t="s">
+        <v>258</v>
+      </c>
+      <c r="C134" t="s">
+        <v>212</v>
+      </c>
+      <c r="D134" t="s">
+        <v>436</v>
+      </c>
+      <c r="E134" t="s">
+        <v>301</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>121</v>
+      </c>
+      <c r="B135" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" t="s">
+        <v>437</v>
+      </c>
+      <c r="E135" t="s">
+        <v>301</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>122</v>
+      </c>
+      <c r="B136" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" t="s">
+        <v>214</v>
+      </c>
+      <c r="D136" t="s">
+        <v>438</v>
+      </c>
+      <c r="E136" t="s">
+        <v>301</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>123</v>
+      </c>
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" t="s">
+        <v>215</v>
+      </c>
+      <c r="D137" t="s">
+        <v>440</v>
+      </c>
+      <c r="E137" t="s">
+        <v>301</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>124</v>
+      </c>
+      <c r="B138" t="s">
+        <v>262</v>
+      </c>
+      <c r="C138" t="s">
+        <v>216</v>
+      </c>
+      <c r="D138" t="s">
+        <v>441</v>
+      </c>
+      <c r="E138" t="s">
+        <v>301</v>
+      </c>
+      <c r="F138">
+        <v>4</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>125</v>
+      </c>
+      <c r="B139" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" t="s">
+        <v>217</v>
+      </c>
+      <c r="D139" t="s">
+        <v>442</v>
+      </c>
+      <c r="E139" t="s">
+        <v>301</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>126</v>
+      </c>
+      <c r="B140" t="s">
+        <v>264</v>
+      </c>
+      <c r="C140" t="s">
+        <v>218</v>
+      </c>
+      <c r="D140" t="s">
+        <v>439</v>
+      </c>
+      <c r="E140" t="s">
+        <v>301</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>127</v>
+      </c>
+      <c r="B141" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" t="s">
+        <v>444</v>
+      </c>
+      <c r="E141" t="s">
+        <v>301</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>128</v>
+      </c>
+      <c r="B142" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" t="s">
+        <v>220</v>
+      </c>
+      <c r="D142" t="s">
+        <v>445</v>
+      </c>
+      <c r="E142" t="s">
+        <v>301</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>129</v>
+      </c>
+      <c r="B143" t="s">
+        <v>267</v>
+      </c>
+      <c r="C143" t="s">
+        <v>221</v>
+      </c>
+      <c r="D143" t="s">
+        <v>443</v>
+      </c>
+      <c r="E143" t="s">
+        <v>301</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>130</v>
+      </c>
+      <c r="B144" t="s">
+        <v>268</v>
+      </c>
+      <c r="C144" t="s">
+        <v>222</v>
+      </c>
+      <c r="D144" t="s">
+        <v>446</v>
+      </c>
+      <c r="E144" t="s">
+        <v>301</v>
+      </c>
+      <c r="F144">
+        <v>5</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>131</v>
+      </c>
+      <c r="B145" t="s">
+        <v>269</v>
+      </c>
+      <c r="C145" t="s">
+        <v>223</v>
+      </c>
+      <c r="D145" t="s">
+        <v>447</v>
+      </c>
+      <c r="E145" t="s">
+        <v>301</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>132</v>
+      </c>
+      <c r="B146" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" t="s">
+        <v>224</v>
+      </c>
+      <c r="D146" t="s">
+        <v>448</v>
+      </c>
+      <c r="E146" t="s">
+        <v>301</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>133</v>
+      </c>
+      <c r="B147" t="s">
+        <v>271</v>
+      </c>
+      <c r="C147" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" t="s">
+        <v>449</v>
+      </c>
+      <c r="E147" t="s">
+        <v>301</v>
+      </c>
+      <c r="F147">
+        <v>5</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>134</v>
+      </c>
+      <c r="B148" t="s">
+        <v>272</v>
+      </c>
+      <c r="C148" t="s">
+        <v>226</v>
+      </c>
+      <c r="D148" t="s">
+        <v>450</v>
+      </c>
+      <c r="E148" t="s">
+        <v>301</v>
+      </c>
+      <c r="F148">
+        <v>6</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>135</v>
+      </c>
+      <c r="B149" t="s">
+        <v>273</v>
+      </c>
+      <c r="C149" t="s">
+        <v>227</v>
+      </c>
+      <c r="D149" t="s">
+        <v>451</v>
+      </c>
+      <c r="E149" t="s">
+        <v>301</v>
+      </c>
+      <c r="F149">
+        <v>5</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>136</v>
+      </c>
+      <c r="B150" t="s">
+        <v>274</v>
+      </c>
+      <c r="C150" t="s">
+        <v>228</v>
+      </c>
+      <c r="D150" t="s">
+        <v>452</v>
+      </c>
+      <c r="E150" t="s">
+        <v>301</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>137</v>
+      </c>
+      <c r="B151" t="s">
+        <v>275</v>
+      </c>
+      <c r="C151" t="s">
+        <v>229</v>
+      </c>
+      <c r="D151" t="s">
+        <v>453</v>
+      </c>
+      <c r="E151" t="s">
+        <v>301</v>
+      </c>
+      <c r="F151">
+        <v>5</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>138</v>
+      </c>
+      <c r="B152" t="s">
+        <v>276</v>
+      </c>
+      <c r="C152" t="s">
+        <v>230</v>
+      </c>
+      <c r="D152" t="s">
+        <v>454</v>
+      </c>
+      <c r="E152" t="s">
+        <v>301</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>139</v>
+      </c>
+      <c r="B153" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" t="s">
+        <v>281</v>
+      </c>
+      <c r="D153" t="s">
+        <v>455</v>
+      </c>
+      <c r="E153" t="s">
+        <v>301</v>
+      </c>
+      <c r="F153">
+        <v>5.2</v>
+      </c>
+      <c r="H153" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>140</v>
+      </c>
+      <c r="B154" t="s">
+        <v>282</v>
+      </c>
+      <c r="C154" t="s">
+        <v>283</v>
+      </c>
+      <c r="D154" t="s">
+        <v>456</v>
+      </c>
+      <c r="E154" t="s">
+        <v>301</v>
+      </c>
+      <c r="F154">
+        <v>4.2</v>
+      </c>
+      <c r="G154" t="s">
+        <v>278</v>
+      </c>
+      <c r="H154" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>141</v>
+      </c>
+      <c r="B155" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" t="s">
+        <v>285</v>
+      </c>
+      <c r="D155" t="s">
+        <v>457</v>
+      </c>
+      <c r="E155" t="s">
+        <v>301</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>142</v>
+      </c>
+      <c r="B156" t="s">
+        <v>286</v>
+      </c>
+      <c r="C156" t="s">
+        <v>287</v>
+      </c>
+      <c r="D156" t="s">
+        <v>458</v>
+      </c>
+      <c r="E156" t="s">
+        <v>301</v>
+      </c>
+      <c r="F156">
+        <v>6.1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>279</v>
+      </c>
+      <c r="H156" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LGC_Motiv_analysis/nutrition/bls_3.02/BLS_3.02/BLS-Dateiaufbau.xlsx
+++ b/LGC_Motiv_analysis/nutrition/bls_3.02/BLS_3.02/BLS-Dateiaufbau.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_analysis\nutrition\bls_3.02\BLS_3.02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Clairis\Documents\GitHub\LGC_motiv\LGC_Motiv_analysis\nutrition\bls_3.02\BLS_3.02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8D1D1-67D8-4798-9335-2B8B5EA39CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2AB219-204E-4A15-8A3A-82AE2E25A58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS-Dateiaufbau" sheetId="1" r:id="rId1"/>
@@ -5151,8 +5151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,28 +5330,28 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E18" t="s">
-        <v>301</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5486,54 +5486,54 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E24" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="2">
         <v>6</v>
       </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E25" t="s">
-        <v>301</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E25" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5876,54 +5876,54 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>25</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E39" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="E39" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>26</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E40" t="s">
-        <v>301</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="E40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6006,28 +6006,28 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>30</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E44" t="s">
-        <v>301</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="E44" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6162,28 +6162,28 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>36</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E50" t="s">
-        <v>301</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F50" s="2">
         <v>4</v>
       </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6526,28 +6526,28 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>50</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E64" t="s">
-        <v>301</v>
-      </c>
-      <c r="F64">
-        <v>5</v>
-      </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="E64" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6682,28 +6682,28 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>56</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E70" t="s">
-        <v>301</v>
-      </c>
-      <c r="F70">
-        <v>5</v>
-      </c>
-      <c r="G70" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="E70" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F70" s="2">
+        <v>5</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6734,28 +6734,28 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>58</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E72" t="s">
-        <v>301</v>
-      </c>
-      <c r="F72">
-        <v>5</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="E72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F72" s="2">
+        <v>5</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7280,28 +7280,28 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>79</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E93" t="s">
-        <v>301</v>
-      </c>
-      <c r="F93">
+      <c r="E93" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F93" s="2">
         <v>4</v>
       </c>
-      <c r="G93" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="G93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7436,80 +7436,80 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>85</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E99" t="s">
-        <v>301</v>
-      </c>
-      <c r="F99">
+      <c r="E99" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F99" s="2">
         <v>4</v>
       </c>
-      <c r="G99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>86</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E100" t="s">
-        <v>301</v>
-      </c>
-      <c r="F100">
-        <v>5</v>
-      </c>
-      <c r="G100" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="E100" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F100" s="2">
+        <v>5</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>87</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E101" t="s">
-        <v>301</v>
-      </c>
-      <c r="F101">
-        <v>5</v>
-      </c>
-      <c r="G101" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="E101" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F101" s="2">
+        <v>5</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8736,28 +8736,28 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="2">
         <v>135</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E149" t="s">
-        <v>301</v>
-      </c>
-      <c r="F149">
-        <v>5</v>
-      </c>
-      <c r="G149" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="E149" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F149" s="2">
+        <v>5</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>293</v>
       </c>
     </row>
